--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -1,40 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B6F0A1-BBD4-460F-B011-217C64EC7371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{6D121331-FDCA-4A51-AC20-53BF00FED196}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -42,9 +47,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,15 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{29603301-C9CA-4097-A440-C42CF559928D}">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -70,9 +71,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -86,15 +85,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{78836FB2-9778-48A3-876A-ABF564D45D03}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -102,9 +99,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -119,254 +114,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>组</t>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>是否保存</t>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>触发目标</t>
+  </si>
+  <si>
+    <t>行为类型</t>
+  </si>
+  <si>
+    <t>行为对象</t>
+  </si>
+  <si>
+    <t>行为参数</t>
+  </si>
+  <si>
+    <t>是否强引导</t>
+  </si>
+  <si>
+    <t>引导文本</t>
+  </si>
+  <si>
+    <t>文本位置[相对于按钮]</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NextID </t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>TrigerType</t>
+  </si>
+  <si>
+    <t>TrigerParams</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>ActionTarget</t>
+  </si>
+  <si>
+    <t>ActionParams</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t>TextPosition</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>引导文本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本位置[相对于按钮]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下一步</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">NextID </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Save</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否强引导</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Force</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Text </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextPosition</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrigerType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIMain</t>
   </si>
   <si>
     <t>AdventureBtn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionParams</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮进入探险</t>
+  </si>
+  <si>
+    <t>UIDungeon</t>
   </si>
   <si>
     <t>ChapterList;0@Image_DI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择章节</t>
+  </si>
+  <si>
+    <t>UIDungeonLevel</t>
   </si>
   <si>
     <t>ChapterContent;0@ButtonEnter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击进入探险</t>
+  </si>
+  <si>
+    <t>UITaskGet</t>
+  </si>
+  <si>
+    <t>BtnCommitTask1</t>
+  </si>
+  <si>
+    <t>点击按钮提交任务</t>
+  </si>
+  <si>
+    <t>点击任务开始寻路</t>
+  </si>
+  <si>
+    <t>ButtonGet</t>
+  </si>
+  <si>
+    <t>点击接取任务</t>
   </si>
   <si>
     <t>UIMainTask@TaskShowList;0@ButtonTask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrigerParams</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/Main/UIMain</t>
-  </si>
-  <si>
-    <t>Dungeon/UIDungeonLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dungeon/UIDungeon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/Task/UITaskGet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BtnCommitTask1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为对象</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UIMainSkill@Btn_ShiQu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮进入探险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择章节</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击进入探险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击按钮提交任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击任务开始寻路</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>点击拾取掉落道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ButtonGet</t>
-  </si>
-  <si>
-    <t>点击接取任务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UIMapMini@MiniMapButton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>点击去往矿洞二层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/MiniMap/UIMapBig</t>
-  </si>
-  <si>
-    <t>Main/MiniMap/UIMapBig</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/Skill/UISkill</t>
+  </si>
+  <si>
+    <t>UIMapBig</t>
+  </si>
+  <si>
+    <t>MapNameSet;10@Image</t>
+  </si>
+  <si>
+    <t>UISkill</t>
   </si>
   <si>
     <t>FunctionSetBtn;2@Button</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Btn_RoseEquip</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>属性加点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/Role/UIRole</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRole</t>
   </si>
   <si>
     <t>UIRoleProperty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubViewNode;1@ButtonAddPoint</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Btn_RoseSkill</t>
   </si>
   <si>
     <t>学习技能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SubViewNode;0@SkillListNode;1@ButtonLearn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main/Skill/UISkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapNameSet;10@Image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,39 +312,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +490,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -432,9 +685,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -455,17 +950,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -752,19 +1291,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -782,121 +1321,121 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:14">
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="20.1" customHeight="1" spans="3:14">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>14</v>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -913,28 +1452,28 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:14">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -951,28 +1490,28 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="6">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:14">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -989,28 +1528,28 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:14">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1042,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:14">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1059,28 +1598,28 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1110,13 +1649,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:14">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1133,28 +1672,28 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:14">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1177,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1189,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:14">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1212,22 +1751,22 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="1">
         <v>20010</v>
       </c>
@@ -1250,22 +1789,22 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="19.5" customHeight="1" spans="3:14">
       <c r="C16" s="1">
         <v>20011</v>
       </c>
@@ -1282,28 +1821,28 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
       <c r="C17" s="1">
         <v>30001</v>
       </c>
@@ -1326,22 +1865,22 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:14">
       <c r="C18" s="1">
         <v>40001</v>
       </c>
@@ -1364,22 +1903,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C19" s="1">
         <v>40002</v>
       </c>
@@ -1396,28 +1935,28 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" spans="3:14">
       <c r="C20" s="1">
         <v>40003</v>
       </c>
@@ -1434,28 +1973,28 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" spans="3:14">
       <c r="C21" s="1">
         <v>50001</v>
       </c>
@@ -1478,22 +2017,22 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" spans="3:14">
       <c r="C22" s="1">
         <v>50002</v>
       </c>
@@ -1510,38 +2049,38 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1"/>
+    <row r="24" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1"/>
+    <row r="26" s="1" customFormat="1"/>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="28" s="1" customFormat="1"/>
+    <row r="29" s="1" customFormat="1"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -200,19 +200,16 @@
     <t>点击按钮进入探险</t>
   </si>
   <si>
-    <t>UIDungeon</t>
-  </si>
-  <si>
-    <t>ChapterList;0@Image_DI</t>
+    <t>UIDungeonMap</t>
+  </si>
+  <si>
+    <t>Map1</t>
   </si>
   <si>
     <t>选择章节</t>
   </si>
   <si>
-    <t>UIDungeonLevel</t>
-  </si>
-  <si>
-    <t>ChapterContent;0@ButtonEnter</t>
+    <t>E_EnterMap</t>
   </si>
   <si>
     <t>点击进入探险</t>
@@ -221,7 +218,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>BtnCommitTask1</t>
+    <t>E_BtnCommitTask1</t>
   </si>
   <si>
     <t>点击按钮提交任务</t>
@@ -466,12 +463,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1300,7 +1297,7 @@
   <dimension ref="C3:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1528,22 +1525,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
@@ -1572,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>20001003</v>
+        <v>1000101</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1598,22 +1595,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1636,20 +1633,20 @@
         <v>4</v>
       </c>
       <c r="H11" s="1">
-        <v>30010000</v>
+        <v>100002</v>
       </c>
       <c r="I11" s="6">
         <v>2</v>
       </c>
       <c r="J11" s="1">
-        <v>20001003</v>
+        <v>1000101</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1672,22 +1669,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1719,7 +1716,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -1754,13 +1751,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1792,13 +1789,13 @@
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1821,22 +1818,22 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1865,16 +1862,16 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1906,13 +1903,13 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1935,22 +1932,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1973,22 +1970,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2020,13 +2017,13 @@
         <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2049,22 +2046,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -215,28 +215,31 @@
     <t>点击进入探险</t>
   </si>
   <si>
+    <t>前往Npc</t>
+  </si>
+  <si>
     <t>UITaskGet</t>
   </si>
   <si>
+    <t>Content;0@E_ImageButton</t>
+  </si>
+  <si>
+    <t>选择任务</t>
+  </si>
+  <si>
     <t>E_BtnCommitTask1</t>
   </si>
   <si>
     <t>点击按钮提交任务</t>
   </si>
   <si>
-    <t>点击任务开始寻路</t>
-  </si>
-  <si>
-    <t>ButtonGet</t>
+    <t>E_ButtonGet</t>
   </si>
   <si>
     <t>点击接取任务</t>
   </si>
   <si>
-    <t>UIMainTask@TaskShowList;0@ButtonTask</t>
-  </si>
-  <si>
-    <t>UIMainSkill@Btn_ShiQu</t>
+    <t>E_Btn_ShiQu</t>
   </si>
   <si>
     <t>点击拾取掉落道具</t>
@@ -1296,8 +1299,8 @@
   <sheetPr/>
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1574,6 +1577,9 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
+      <c r="M9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
@@ -1595,22 +1601,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1630,23 +1636,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>100002</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1000101</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1669,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1704,22 +1712,25 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>3</v>
-      </c>
-      <c r="H13" s="1">
-        <v>30010001</v>
-      </c>
-      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1751,13 +1762,13 @@
         <v>25</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
@@ -1789,13 +1800,13 @@
         <v>25</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
@@ -1818,22 +1829,22 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
@@ -1862,16 +1873,16 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
@@ -1903,13 +1914,13 @@
         <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
@@ -1932,22 +1943,22 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -1970,22 +1981,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2017,13 +2028,13 @@
         <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2046,22 +2057,22 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -260,13 +260,13 @@
     <t>UISkill</t>
   </si>
   <si>
-    <t>FunctionSetBtn;2@Button</t>
+    <t>EG_SubViewNode;2@Button</t>
   </si>
   <si>
     <t>技能设置</t>
   </si>
   <si>
-    <t>Btn_RoseEquip</t>
+    <t>E_Bag</t>
   </si>
   <si>
     <t>属性加点</t>
@@ -275,19 +275,22 @@
     <t>UIRole</t>
   </si>
   <si>
-    <t>UIRoleProperty</t>
-  </si>
-  <si>
-    <t>SubViewNode;1@ButtonAddPoint</t>
-  </si>
-  <si>
-    <t>Btn_RoseSkill</t>
+    <t>EG_SubView;1@E_AddPoint</t>
+  </si>
+  <si>
+    <t>E_Shrink</t>
   </si>
   <si>
     <t>学习技能</t>
   </si>
   <si>
-    <t>SubViewNode;0@SkillListNode;1@ButtonLearn</t>
+    <t>UIFunction</t>
+  </si>
+  <si>
+    <t>E_RoseSkill</t>
+  </si>
+  <si>
+    <t>EG_SubViewNode;0@E_SkillLearn</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="C3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1952,7 +1955,7 @@
         <v>52</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1966,10 +1969,10 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="3:14">
       <c r="C20" s="1">
-        <v>40003</v>
+        <v>50001</v>
       </c>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1978,16 +1981,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>54</v>
@@ -1996,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="3:14">
       <c r="C21" s="1">
-        <v>50001</v>
+        <v>50002</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
@@ -2016,25 +2019,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2042,7 +2045,7 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="3:14">
       <c r="C22" s="1">
-        <v>50002</v>
+        <v>50003</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2066,13 +2069,13 @@
         <v>47</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -239,6 +239,12 @@
     <t>点击接取任务</t>
   </si>
   <si>
+    <t>MainTaskContent;0@E_Click</t>
+  </si>
+  <si>
+    <t>点击前往任务</t>
+  </si>
+  <si>
     <t>E_Btn_ShiQu</t>
   </si>
   <si>
@@ -260,7 +266,7 @@
     <t>UISkill</t>
   </si>
   <si>
-    <t>EG_SubViewNode;2@Button</t>
+    <t>Type_1</t>
   </si>
   <si>
     <t>技能设置</t>
@@ -273,6 +279,12 @@
   </si>
   <si>
     <t>UIRole</t>
+  </si>
+  <si>
+    <t>E_Type_Property</t>
+  </si>
+  <si>
+    <t>UIRoleProperty</t>
   </si>
   <si>
     <t>EG_SubView;1@E_AddPoint</t>
@@ -1300,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:N29"/>
+  <dimension ref="C3:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1753,12 +1765,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1779,10 +1791,10 @@
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="1">
-        <v>20010</v>
+        <v>10010</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1791,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1">
-        <v>30010014</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1815,9 +1827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="3:14">
+    <row r="16" ht="20.1" customHeight="1" spans="3:14">
       <c r="C16" s="1">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1829,36 +1841,36 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>30010014</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" ht="19.5" customHeight="1" spans="3:14">
       <c r="C17" s="1">
-        <v>30001</v>
+        <v>20011</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -1867,10 +1879,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1885,36 +1897,36 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C18" s="1">
+        <v>30001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:14">
-      <c r="C18" s="1">
-        <v>40001</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>7</v>
-      </c>
-      <c r="H18" s="1">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>50</v>
@@ -1929,9 +1941,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="19" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:14">
       <c r="C19" s="1">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -1943,36 +1955,36 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="3:14">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C20" s="1">
-        <v>50001</v>
+        <v>40002</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1981,36 +1993,36 @@
         <v>1</v>
       </c>
       <c r="G20" s="1">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="3:14">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
       <c r="C21" s="1">
-        <v>50002</v>
+        <v>40003</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2028,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>57</v>
@@ -2037,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2045,7 +2057,7 @@
     </row>
     <row r="22" s="1" customFormat="1" spans="3:14">
       <c r="C22" s="1">
-        <v>50003</v>
+        <v>50001</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2057,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>58</v>
@@ -2075,19 +2087,95 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1"/>
-    <row r="24" s="1" customFormat="1"/>
+    <row r="23" s="1" customFormat="1" spans="3:14">
+      <c r="C23" s="1">
+        <v>50002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="3:14">
+      <c r="C24" s="1">
+        <v>50003</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" s="1" customFormat="1"/>
     <row r="26" s="1" customFormat="1"/>
     <row r="27" s="1" customFormat="1"/>
     <row r="28" s="1" customFormat="1"/>
     <row r="29" s="1" customFormat="1"/>
+    <row r="30" s="1" customFormat="1"/>
+    <row r="31" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF3DBD6-0E9C-4EF1-A46E-3AABB443FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -308,14 +301,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,150 +324,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -491,8 +334,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,194 +354,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -700,251 +363,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -965,61 +386,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,19 +683,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -1336,7 +713,7 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="20.1" customHeight="1" spans="3:14">
+    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:14">
+    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:14">
+    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1450,7 +827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:14">
+    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1488,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:14">
+    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1526,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1564,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1587,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>1000101</v>
+        <v>100001</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1599,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1637,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1675,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1713,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1751,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1789,7 +1166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
@@ -1827,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>20010</v>
       </c>
@@ -1865,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" spans="3:14">
+    <row r="17" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>20011</v>
       </c>
@@ -1903,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>30001</v>
       </c>
@@ -1941,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:14">
+    <row r="19" spans="3:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1">
         <v>40001</v>
       </c>
@@ -1979,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="20" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>40002</v>
       </c>
@@ -2017,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:14">
+    <row r="21" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>40003</v>
       </c>
@@ -2055,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="3:14">
+    <row r="22" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
         <v>50001</v>
       </c>
@@ -2093,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="3:14">
+    <row r="23" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="1">
         <v>50002</v>
       </c>
@@ -2131,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="3:14">
+    <row r="24" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>50003</v>
       </c>
@@ -2169,17 +1546,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1"/>
-    <row r="26" s="1" customFormat="1"/>
-    <row r="27" s="1" customFormat="1"/>
-    <row r="28" s="1" customFormat="1"/>
-    <row r="29" s="1" customFormat="1"/>
-    <row r="30" s="1" customFormat="1"/>
-    <row r="31" s="1" customFormat="1"/>
+    <row r="25" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF3DBD6-0E9C-4EF1-A46E-3AABB443FB0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -78,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -145,6 +152,9 @@
     <t>文本位置[相对于按钮]</t>
   </si>
   <si>
+    <t>偏移</t>
+  </si>
+  <si>
     <t>GroupId</t>
   </si>
   <si>
@@ -178,12 +188,18 @@
     <t>TextPosition</t>
   </si>
   <si>
+    <t xml:space="preserve">Offset </t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>UIMain</t>
   </si>
   <si>
@@ -200,6 +216,9 @@
   </si>
   <si>
     <t>选择章节</t>
+  </si>
+  <si>
+    <t>-20,-20</t>
   </si>
   <si>
     <t>E_EnterMap</t>
@@ -301,8 +320,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +349,150 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -334,14 +503,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,8 +517,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -363,11 +712,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -376,27 +967,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -683,19 +1324,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:N31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -710,124 +1351,134 @@
     <col min="12" max="12" width="13.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="22.75" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="15.125" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+    <row r="3" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="20.1" customHeight="1" spans="3:14">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -844,28 +1495,28 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="6">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -882,28 +1533,31 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6">
+        <v>31</v>
+      </c>
+      <c r="I7" s="8">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="3:14">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -920,28 +1574,28 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="6">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:14">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -960,7 +1614,7 @@
       <c r="H9" s="1">
         <v>10001</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="8">
         <v>2</v>
       </c>
       <c r="J9" s="1">
@@ -970,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:14">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -993,28 +1647,28 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="6">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:14">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1031,28 +1685,28 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6">
+        <v>38</v>
+      </c>
+      <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:14">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1069,28 +1723,28 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:14">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1107,28 +1761,28 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6">
+        <v>38</v>
+      </c>
+      <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:14">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1147,26 +1801,26 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="8">
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="1">
         <v>10010</v>
       </c>
@@ -1189,22 +1843,22 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:14">
       <c r="C16" s="1">
         <v>20010</v>
       </c>
@@ -1227,22 +1881,22 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="19.5" customHeight="1" spans="3:14">
       <c r="C17" s="1">
         <v>20011</v>
       </c>
@@ -1259,28 +1913,28 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:14">
       <c r="C18" s="1">
         <v>30001</v>
       </c>
@@ -1303,22 +1957,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:14" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:15">
       <c r="C19" s="1">
         <v>40001</v>
       </c>
@@ -1341,22 +1995,23 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C20" s="1">
         <v>40002</v>
       </c>
@@ -1373,28 +2028,29 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C21" s="1">
         <v>40003</v>
       </c>
@@ -1411,28 +2067,29 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C22" s="1">
         <v>50001</v>
       </c>
@@ -1455,22 +2112,23 @@
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C23" s="1">
         <v>50002</v>
       </c>
@@ -1487,28 +2145,29 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C24" s="1">
         <v>50003</v>
       </c>
@@ -1525,38 +2184,53 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="L24" s="1">
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="3:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="3:14" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="15:15">
+      <c r="O31" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Id</t>
   </si>
@@ -227,6 +227,9 @@
     <t>点击进入探险</t>
   </si>
   <si>
+    <t>MainTaskContent;0@E_Click</t>
+  </si>
+  <si>
     <t>前往Npc</t>
   </si>
   <si>
@@ -249,9 +252,6 @@
   </si>
   <si>
     <t>点击接取任务</t>
-  </si>
-  <si>
-    <t>MainTaskContent;0@E_Click</t>
   </si>
   <si>
     <t>点击前往任务</t>
@@ -1332,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="C3:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1615,16 +1615,19 @@
         <v>10001</v>
       </c>
       <c r="I9" s="8">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>100001</v>
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
@@ -1647,22 +1650,22 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" s="1">
         <v>0</v>
@@ -1685,22 +1688,22 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N11" s="1">
         <v>0</v>
@@ -1723,22 +1726,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
@@ -1761,22 +1764,22 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
@@ -1808,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -257,64 +257,64 @@
     <t>点击前往任务</t>
   </si>
   <si>
+    <t>UIMapMini@MiniMapButton</t>
+  </si>
+  <si>
+    <t>点击去往矿洞二层</t>
+  </si>
+  <si>
+    <t>UIMapBig</t>
+  </si>
+  <si>
+    <t>MapNameSet;10@Image</t>
+  </si>
+  <si>
+    <t>UISkill</t>
+  </si>
+  <si>
+    <t>Type_1</t>
+  </si>
+  <si>
+    <t>技能设置</t>
+  </si>
+  <si>
+    <t>E_Bag</t>
+  </si>
+  <si>
+    <t>属性加点</t>
+  </si>
+  <si>
+    <t>UIRole</t>
+  </si>
+  <si>
+    <t>E_Type_Property</t>
+  </si>
+  <si>
+    <t>UIRoleProperty</t>
+  </si>
+  <si>
+    <t>EG_SubView;1@E_AddPoint</t>
+  </si>
+  <si>
+    <t>E_Shrink</t>
+  </si>
+  <si>
+    <t>学习技能</t>
+  </si>
+  <si>
+    <t>UIFunction</t>
+  </si>
+  <si>
+    <t>E_RoseSkill</t>
+  </si>
+  <si>
+    <t>EG_SubViewNode;0@E_SkillLearn</t>
+  </si>
+  <si>
     <t>E_Btn_ShiQu</t>
   </si>
   <si>
     <t>点击拾取掉落道具</t>
-  </si>
-  <si>
-    <t>UIMapMini@MiniMapButton</t>
-  </si>
-  <si>
-    <t>点击去往矿洞二层</t>
-  </si>
-  <si>
-    <t>UIMapBig</t>
-  </si>
-  <si>
-    <t>MapNameSet;10@Image</t>
-  </si>
-  <si>
-    <t>UISkill</t>
-  </si>
-  <si>
-    <t>Type_1</t>
-  </si>
-  <si>
-    <t>技能设置</t>
-  </si>
-  <si>
-    <t>E_Bag</t>
-  </si>
-  <si>
-    <t>属性加点</t>
-  </si>
-  <si>
-    <t>UIRole</t>
-  </si>
-  <si>
-    <t>E_Type_Property</t>
-  </si>
-  <si>
-    <t>UIRoleProperty</t>
-  </si>
-  <si>
-    <t>EG_SubView;1@E_AddPoint</t>
-  </si>
-  <si>
-    <t>E_Shrink</t>
-  </si>
-  <si>
-    <t>学习技能</t>
-  </si>
-  <si>
-    <t>UIFunction</t>
-  </si>
-  <si>
-    <t>E_RoseSkill</t>
-  </si>
-  <si>
-    <t>EG_SubViewNode;0@E_SkillLearn</t>
   </si>
 </sst>
 </file>
@@ -1330,10 +1330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:O31"/>
+  <dimension ref="C3:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="3:14">
       <c r="C15" s="1">
-        <v>10010</v>
+        <v>20010</v>
       </c>
       <c r="D15" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>30010014</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -1861,9 +1861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:14">
+    <row r="16" ht="19.5" customHeight="1" spans="3:14">
       <c r="C16" s="1">
-        <v>20010</v>
+        <v>20011</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1875,37 +1875,37 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+      <c r="C17" s="1">
+        <v>30001</v>
+      </c>
+      <c r="D17" s="1">
         <v>3</v>
       </c>
-      <c r="H16" s="1">
-        <v>30010014</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="19.5" customHeight="1" spans="3:14">
-      <c r="C17" s="1">
-        <v>20011</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
@@ -1913,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1931,18 +1931,18 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:14">
+    <row r="18" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:15">
       <c r="C18" s="1">
-        <v>30001</v>
+        <v>40001</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -1951,16 +1951,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>54</v>
@@ -1974,10 +1974,11 @@
       <c r="N18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:15">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C19" s="1">
-        <v>40001</v>
+        <v>40002</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -1989,25 +1990,25 @@
         <v>1</v>
       </c>
       <c r="G19" s="1">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
@@ -2016,7 +2017,7 @@
     </row>
     <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C20" s="1">
-        <v>40002</v>
+        <v>40003</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -2037,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>59</v>
@@ -2046,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
@@ -2055,10 +2056,10 @@
     </row>
     <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C21" s="1">
-        <v>40003</v>
+        <v>50001</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -2067,25 +2068,25 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="N21" s="1">
         <v>0</v>
@@ -2094,7 +2095,7 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C22" s="1">
-        <v>50001</v>
+        <v>50002</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -2106,25 +2107,25 @@
         <v>1</v>
       </c>
       <c r="G22" s="1">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
@@ -2133,7 +2134,7 @@
     </row>
     <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C23" s="1">
-        <v>50002</v>
+        <v>50003</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -2148,22 +2149,22 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
@@ -2172,37 +2173,37 @@
     </row>
     <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
       <c r="C24" s="1">
-        <v>50003</v>
+        <v>60001</v>
       </c>
       <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>5</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>53</v>
+      <c r="H24" s="1">
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="N24" s="1">
         <v>0</v>
@@ -2224,11 +2225,8 @@
     <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
       <c r="O29" s="4"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="30" s="1" customFormat="1" spans="15:15">
       <c r="O30" s="4"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="15:15">
-      <c r="O31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/GuideConfig.xlsx
+++ b/Unity/Assets/Config/Excel/GuideConfig.xlsx
@@ -1,45 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E80012-1118-4174-84A5-CEDEE0DF9CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuideProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -48,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,13 +52,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="G3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -72,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,13 +82,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -100,6 +98,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -230,9 +229,6 @@
     <t>MainTaskContent;0@E_Click</t>
   </si>
   <si>
-    <t>前往Npc</t>
-  </si>
-  <si>
     <t>UITaskGet</t>
   </si>
   <si>
@@ -315,19 +311,17 @@
   </si>
   <si>
     <t>点击拾取掉落道具</t>
+  </si>
+  <si>
+    <t>点击前往</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +333,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -346,165 +341,31 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,194 +378,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -712,251 +387,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -983,61 +416,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1324,19 +713,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" customWidth="1"/>
@@ -1355,7 +744,7 @@
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" ht="20.1" customHeight="1" spans="3:15">
+    <row r="3" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:15">
+    <row r="4" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1437,7 +826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:15">
+    <row r="5" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1478,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:14">
+    <row r="6" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>10001</v>
       </c>
@@ -1516,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:15">
+    <row r="7" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>10002</v>
       </c>
@@ -1557,7 +946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:14">
+    <row r="8" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>10003</v>
       </c>
@@ -1595,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:14">
+    <row r="9" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>10004</v>
       </c>
@@ -1627,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:14">
+    <row r="10" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>10005</v>
       </c>
@@ -1650,28 +1039,28 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:14">
+    <row r="11" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>10006</v>
       </c>
@@ -1688,28 +1077,28 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="N11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:14">
+    <row r="12" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>10007</v>
       </c>
@@ -1726,28 +1115,28 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="8">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:14">
+    <row r="13" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>10008</v>
       </c>
@@ -1764,28 +1153,28 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="8">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:14">
+    <row r="14" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>10009</v>
       </c>
@@ -1817,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:14">
+    <row r="15" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>20010</v>
       </c>
@@ -1849,19 +1238,19 @@
         <v>28</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" spans="3:14">
+    <row r="16" spans="3:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>20011</v>
       </c>
@@ -1878,28 +1267,28 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:14">
+    <row r="17" spans="3:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>30001</v>
       </c>
@@ -1922,22 +1311,22 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="19.5" customHeight="1" spans="3:15">
+    <row r="18" spans="3:15" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="1">
         <v>40001</v>
       </c>
@@ -1963,20 +1352,20 @@
         <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="N18" s="1">
         <v>0</v>
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="19" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="1">
         <v>40002</v>
       </c>
@@ -1993,29 +1382,29 @@
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N19" s="1">
         <v>0</v>
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="20" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="1">
         <v>40003</v>
       </c>
@@ -2032,29 +1421,29 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20" s="1">
         <v>0</v>
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="21" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="1">
         <v>50001</v>
       </c>
@@ -2080,20 +1469,20 @@
         <v>28</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L21" s="1">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N21" s="1">
         <v>0</v>
       </c>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="22" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="1">
         <v>50002</v>
       </c>
@@ -2110,29 +1499,29 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="L22" s="1">
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N22" s="1">
         <v>0</v>
       </c>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="23" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="1">
         <v>50003</v>
       </c>
@@ -2149,29 +1538,29 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="1">
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N23" s="1">
         <v>0</v>
       </c>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:15">
+    <row r="24" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="1">
         <v>60001</v>
       </c>
@@ -2197,41 +1586,41 @@
         <v>28</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L24" s="1">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="N24" s="1">
         <v>0</v>
       </c>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="25" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O25" s="4"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="26" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O26" s="4"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="27" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O27" s="4"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="28" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O28" s="4"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="15:15">
+    <row r="29" spans="3:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O29" s="4"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="15:15">
+    <row r="30" spans="3:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="O30" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>